--- a/Assets/06.Table/YorinMission.xlsx
+++ b/Assets/06.Table/YorinMission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05F00B-75B7-4FC1-8916-FF482D09EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C177A-A145-41EA-8463-CBF3ABC9CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 50 달성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전설 4등급 무기 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,6 +600,10 @@
     <t>가방 - 노리개에서 제작 가능
 (전설 1등급 노리개 필요)
 요괴도장에서 옥을 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1-50 달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1380,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>93</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>94</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1557,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>79</v>
@@ -1629,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>79</v>
@@ -1665,10 +1665,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1701,10 +1701,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1737,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -1773,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1809,10 +1809,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1845,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -1881,10 +1881,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -1953,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
@@ -2025,7 +2025,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>89</v>
@@ -2061,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -2097,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>49</v>
@@ -2133,10 +2133,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -2169,10 +2169,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2205,10 +2205,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -2241,10 +2241,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="15">
         <v>6</v>
@@ -2277,7 +2277,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>49</v>
@@ -2313,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>85</v>
@@ -2349,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>49</v>
@@ -2385,10 +2385,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2421,10 +2421,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
@@ -2457,10 +2457,10 @@
         <v>86</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>49</v>
@@ -2529,10 +2529,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2565,10 +2565,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2601,10 +2601,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
@@ -2637,10 +2637,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="E37" s="15">
         <v>4</v>
@@ -2673,7 +2673,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>52</v>
@@ -2781,10 +2781,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -2817,10 +2817,10 @@
         <v>87</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="15">
         <v>7</v>

--- a/Assets/06.Table/YorinMission.xlsx
+++ b/Assets/06.Table/YorinMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C177A-A145-41EA-8463-CBF3ABC9CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D3AF79-4B48-42B8-9518-295122DF6194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -361,10 +361,6 @@
   </si>
   <si>
     <t>상점에서 시작세트 1 구입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴도장 10층까지 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,7 +599,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 1-50 달성</t>
+    <t>YMission1_9</t>
+  </si>
+  <si>
+    <t>기술 뽑기 6레벨 달성</t>
+  </si>
+  <si>
+    <t>메뉴 - 상점 - 소환에서 뽑기를 진행 가능</t>
+  </si>
+  <si>
+    <t>YMission2_7</t>
+  </si>
+  <si>
+    <t>기술 흡수 1회</t>
+  </si>
+  <si>
+    <t>기술 - 우측 기술 흡수 버튼 클릭 시 기술 흡수 가능</t>
+  </si>
+  <si>
+    <t>스테이지 1-10 달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴도장 5층까지 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +1014,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1313,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1401,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -1413,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1449,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
@@ -1464,8 +1485,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="27">
-        <f>VLOOKUP(G4,reward!E:G,3,0)*reward!$J$16</f>
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
@@ -1485,10 +1505,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1500,8 +1520,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="27">
-        <f>VLOOKUP(G5,reward!E:G,3,0)*reward!$J$16</f>
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -1521,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1546,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -1557,10 +1576,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1593,7 +1612,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>79</v>
@@ -1629,7 +1648,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>79</v>
@@ -1665,10 +1684,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1701,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1737,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -1773,10 +1792,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1809,10 +1828,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1845,10 +1864,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -1881,10 +1900,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -1917,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -1953,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -1989,7 +2008,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
@@ -2025,7 +2044,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>89</v>
@@ -2061,10 +2080,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -2097,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>49</v>
@@ -2133,10 +2152,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -2169,10 +2188,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2205,10 +2224,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -2241,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="15">
         <v>6</v>
@@ -2277,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>49</v>
@@ -2313,7 +2332,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>85</v>
@@ -2349,7 +2368,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>49</v>
@@ -2385,10 +2404,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2421,10 +2440,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
@@ -2457,10 +2476,10 @@
         <v>86</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2493,7 +2512,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>49</v>
@@ -2529,10 +2548,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2565,10 +2584,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2601,10 +2620,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
@@ -2637,10 +2656,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>132</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>133</v>
       </c>
       <c r="E37" s="15">
         <v>4</v>
@@ -2673,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>50</v>
@@ -2709,7 +2728,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>52</v>
@@ -2781,10 +2800,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -2817,10 +2836,10 @@
         <v>87</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="15">
         <v>7</v>
@@ -2843,6 +2862,76 @@
       </c>
       <c r="K42" s="15">
         <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="28">
+        <v>20000000</v>
+      </c>
+      <c r="I43" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>5</v>
+      </c>
+      <c r="H44" s="28">
+        <v>36000000</v>
+      </c>
+      <c r="I44" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3024,7 @@
       </c>
       <c r="C5" s="25">
         <f>SUMIF(YorinMission!G:G,reward!E5,YorinMission!H:H)</f>
-        <v>200000000</v>
+        <v>228000000</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -3167,7 +3256,7 @@
       </c>
       <c r="C9" s="25">
         <f>SUMIF(YorinMission!G:G,reward!E9,YorinMission!H:H)</f>
-        <v>336000000</v>
+        <v>372000000</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>

--- a/Assets/06.Table/YorinMission.xlsx
+++ b/Assets/06.Table/YorinMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D3AF79-4B48-42B8-9518-295122DF6194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E926EB-5994-479C-9021-0B91B8E9AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YorinMission" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -623,6 +623,15 @@
   <si>
     <t>요괴도장 5층까지 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMission1_10</t>
+  </si>
+  <si>
+    <t>도움말 확인하기</t>
+  </si>
+  <si>
+    <t>메뉴 - 도움말 버튼을 통해 입장 가능</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +1023,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1038,9 +1059,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1099,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1184,7 +1205,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1326,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1334,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2932,6 +2953,41 @@
       </c>
       <c r="K44" s="7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="47">
+        <v>43</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="46">
+        <v>1</v>
+      </c>
+      <c r="G45" s="46">
+        <v>5</v>
+      </c>
+      <c r="H45" s="48">
+        <v>24000000</v>
+      </c>
+      <c r="I45" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="46">
+        <v>1</v>
+      </c>
+      <c r="K45" s="46">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3312,7 @@
       </c>
       <c r="C9" s="25">
         <f>SUMIF(YorinMission!G:G,reward!E9,YorinMission!H:H)</f>
-        <v>372000000</v>
+        <v>396000000</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>

--- a/Assets/06.Table/YorinMission.xlsx
+++ b/Assets/06.Table/YorinMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E926EB-5994-479C-9021-0B91B8E9AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCA7F8-253C-48B6-AB09-2E3E3FCCB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YorinMission" sheetId="1" r:id="rId1"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 - 여우정수에서 각성 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요괴 사냥 - 보스도전에서 획득 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 - 유물복원에서 레벨업 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전리품 교환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,12 +540,6 @@
   <si>
     <t>메뉴 - 보상 - 복주머니에서
 사용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 - 도술 - 입장을 통해
-플레이 가능
-획득한 재화로 도술 레벨업 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -632,6 +618,22 @@
   </si>
   <si>
     <t>메뉴 - 도움말 버튼을 통해 입장 가능</t>
+  </si>
+  <si>
+    <t>메뉴 - 특수 성장 - 여우정수에서
+각성 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 - 특수 성장 - 유물복원에서
+레벨업 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 - 특수 성장 - 도술에서
+입장 가능
+획득한 재화로 도술 레벨업 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,18 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1357,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1419,10 +1409,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -1455,10 +1445,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1491,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
@@ -1526,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1561,10 +1551,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1597,10 +1587,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1630,13 +1620,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -1666,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1705,10 +1695,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1741,10 +1731,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1769,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -1777,10 +1767,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1813,10 +1803,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1849,10 +1839,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1885,10 +1875,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -1921,10 +1911,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -1957,10 +1947,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1993,10 +1983,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -2029,10 +2019,10 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -2065,10 +2055,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2101,10 +2091,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -2137,10 +2127,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12">
         <v>4</v>
@@ -2165,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2173,10 +2163,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -2209,10 +2199,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2245,10 +2235,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -2281,10 +2271,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="15">
         <v>6</v>
@@ -2317,10 +2307,10 @@
         <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="9">
         <v>5</v>
@@ -2353,10 +2343,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2389,10 +2379,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -2425,10 +2415,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -2461,10 +2451,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
@@ -2494,13 +2484,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2533,10 +2523,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="12">
         <v>6</v>
@@ -2569,10 +2559,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2605,10 +2595,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -2641,10 +2631,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
@@ -2677,10 +2667,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E37" s="15">
         <v>4</v>
@@ -2713,10 +2703,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="12">
         <v>7</v>
@@ -2746,13 +2736,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1">
         <v>7</v>
@@ -2788,7 +2778,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="1">
         <v>7</v>
@@ -2821,10 +2811,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -2854,13 +2844,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="15">
         <v>7</v>
@@ -2890,13 +2880,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="7">
         <v>1</v>
@@ -2925,13 +2915,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E44" s="7">
         <v>2</v>
@@ -2956,37 +2946,37 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="47">
+      <c r="A45" s="22">
         <v>43</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="46">
-        <v>1</v>
-      </c>
-      <c r="F45" s="46">
-        <v>1</v>
-      </c>
-      <c r="G45" s="46">
+      <c r="B45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
         <v>5</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="28">
         <v>24000000</v>
       </c>
-      <c r="I45" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="46">
-        <v>1</v>
-      </c>
-      <c r="K45" s="46">
+      <c r="I45" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
         <v>10</v>
       </c>
     </row>
@@ -3022,7 +3012,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -3030,48 +3020,48 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J3" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="M4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="O4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="P4" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3073,7 @@
         <v>228000000</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3097,7 +3087,7 @@
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=1")</f>
@@ -3141,7 +3131,7 @@
         <v>40000</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -3155,7 +3145,7 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=3")</f>
@@ -3199,7 +3189,7 @@
         <v>4400</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -3213,7 +3203,7 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=4")</f>
@@ -3257,7 +3247,7 @@
         <v>88000000000</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3271,7 +3261,7 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=2")</f>
@@ -3315,7 +3305,7 @@
         <v>396000000</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -3329,7 +3319,7 @@
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=5")</f>
@@ -3373,7 +3363,7 @@
         <v>3700</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -3387,7 +3377,7 @@
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=14")</f>
@@ -3431,7 +3421,7 @@
         <v>104000</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -3445,7 +3435,7 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=20")</f>
@@ -3489,7 +3479,7 @@
         <v>14000</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>73</v>
@@ -3503,7 +3493,7 @@
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=73")</f>
@@ -3547,7 +3537,7 @@
         <v>7000</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>46</v>
@@ -3560,7 +3550,7 @@
         <v>5000</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="25">
         <f>COUNTIF(YorinMission!$G$2:$G$9,"=46")</f>
@@ -3607,12 +3597,12 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J15" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I16" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16">
         <v>0.4</v>
@@ -3638,33 +3628,33 @@
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.3">
       <c r="J17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="P17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="Q17" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I18" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="25">
         <f>G5*$J$16*J5</f>
@@ -3701,7 +3691,7 @@
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I19" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="25">
         <f>G6*$J$16*J6</f>
@@ -3738,7 +3728,7 @@
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I20" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="25">
         <f>G7*$J$16*J7</f>
@@ -3775,7 +3765,7 @@
     </row>
     <row r="21" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I21" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="25">
         <f>G8*$J$16*J8</f>
@@ -3812,7 +3802,7 @@
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I22" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="25">
         <f>G9*$J$16*J9</f>
@@ -3849,7 +3839,7 @@
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I23" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" ref="J23:J26" si="9">G10*$J$16*J10</f>
@@ -3886,7 +3876,7 @@
     </row>
     <row r="24" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I24" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="9"/>
@@ -3923,7 +3913,7 @@
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I25" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="9"/>
@@ -3960,7 +3950,7 @@
     </row>
     <row r="26" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I26" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="9"/>
